--- a/src/ontology/terms-extraction/gromacs-50p-occurence_merged.xlsx
+++ b/src/ontology/terms-extraction/gromacs-50p-occurence_merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\terms-extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E1839B-9340-48E9-9101-01CE46D61EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8701246D-DAFD-48E1-8639-40971999BAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deduplicated" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -12493,15 +12496,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20529F5C-3DF4-457C-B7DF-7FE5198428A8}" name="Table1" displayName="Table1" ref="A1:F1520" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20529F5C-3DF4-457C-B7DF-7FE5198428A8}" name="Table1" displayName="Table1" ref="A1:F1520" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F1520" xr:uid="{20529F5C-3DF4-457C-B7DF-7FE5198428A8}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9FFEC898-94C7-459C-B1CB-D1266C79B65C}" name="SeqNo" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{516C31A8-9385-41F3-BAB0-E8B79EC7119D}" name="Term" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{372D0772-FB4C-4A61-B80B-99DB61868B8D}" name="Variable" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{021D5CFE-C6D0-4DAE-885E-1D6D30F68BAC}" name="Description" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{361CB8B8-453E-4DB3-A768-818998C5D0B8}" name="Cat1|Cat2|..." dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{32A523CC-3F59-4E4F-ABBA-BE3BD8EB35D8}" name="Freq" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9FFEC898-94C7-459C-B1CB-D1266C79B65C}" name="SeqNo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{516C31A8-9385-41F3-BAB0-E8B79EC7119D}" name="Term" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{372D0772-FB4C-4A61-B80B-99DB61868B8D}" name="Variable" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{021D5CFE-C6D0-4DAE-885E-1D6D30F68BAC}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{361CB8B8-453E-4DB3-A768-818998C5D0B8}" name="Cat1|Cat2|..." dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{32A523CC-3F59-4E4F-ABBA-BE3BD8EB35D8}" name="Freq" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -46813,18 +46816,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C202D55-A83D-442E-9B1A-CAF55A92273E}">
   <dimension ref="A1:F1520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E13" sqref="A2:F1520"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.90625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.6328125" style="4" customWidth="1"/>
     <col min="4" max="4" width="70" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="4" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
@@ -76685,7 +76688,9 @@
       </c>
     </row>
     <row r="1494" spans="1:6" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1494" s="5"/>
+      <c r="A1494" s="5">
+        <v>1493</v>
+      </c>
       <c r="B1494" s="5" t="s">
         <v>3989</v>
       </c>
@@ -76703,7 +76708,9 @@
       </c>
     </row>
     <row r="1495" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1495" s="5"/>
+      <c r="A1495" s="5">
+        <v>1494</v>
+      </c>
       <c r="B1495" s="5" t="s">
         <v>3993</v>
       </c>
@@ -76721,7 +76728,9 @@
       </c>
     </row>
     <row r="1496" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1496" s="5"/>
+      <c r="A1496" s="5">
+        <v>1495</v>
+      </c>
       <c r="B1496" s="5" t="s">
         <v>3996</v>
       </c>
@@ -76739,7 +76748,9 @@
       </c>
     </row>
     <row r="1497" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1497" s="5"/>
+      <c r="A1497" s="5">
+        <v>1496</v>
+      </c>
       <c r="B1497" s="5" t="s">
         <v>3999</v>
       </c>
@@ -76757,7 +76768,9 @@
       </c>
     </row>
     <row r="1498" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1498" s="5"/>
+      <c r="A1498" s="5">
+        <v>1497</v>
+      </c>
       <c r="B1498" s="5" t="s">
         <v>755</v>
       </c>
@@ -76775,7 +76788,9 @@
       </c>
     </row>
     <row r="1499" spans="1:6" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1499" s="5"/>
+      <c r="A1499" s="5">
+        <v>1498</v>
+      </c>
       <c r="B1499" s="5" t="s">
         <v>4004</v>
       </c>
@@ -76793,7 +76808,9 @@
       </c>
     </row>
     <row r="1500" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1500" s="5"/>
+      <c r="A1500" s="5">
+        <v>1499</v>
+      </c>
       <c r="B1500" s="5" t="s">
         <v>4007</v>
       </c>
@@ -76811,7 +76828,9 @@
       </c>
     </row>
     <row r="1501" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1501" s="5"/>
+      <c r="A1501" s="5">
+        <v>1500</v>
+      </c>
       <c r="B1501" s="5" t="s">
         <v>4011</v>
       </c>
@@ -76829,7 +76848,9 @@
       </c>
     </row>
     <row r="1502" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1502" s="5"/>
+      <c r="A1502" s="5">
+        <v>1501</v>
+      </c>
       <c r="B1502" s="5" t="s">
         <v>4015</v>
       </c>
@@ -76847,7 +76868,9 @@
       </c>
     </row>
     <row r="1503" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1503" s="5"/>
+      <c r="A1503" s="5">
+        <v>1502</v>
+      </c>
       <c r="B1503" s="5" t="s">
         <v>4018</v>
       </c>
@@ -76865,7 +76888,9 @@
       </c>
     </row>
     <row r="1504" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1504" s="5"/>
+      <c r="A1504" s="5">
+        <v>1503</v>
+      </c>
       <c r="B1504" s="5" t="s">
         <v>4021</v>
       </c>
@@ -76883,7 +76908,9 @@
       </c>
     </row>
     <row r="1505" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1505" s="5"/>
+      <c r="A1505" s="5">
+        <v>1504</v>
+      </c>
       <c r="B1505" s="5" t="s">
         <v>4024</v>
       </c>
@@ -76901,7 +76928,9 @@
       </c>
     </row>
     <row r="1506" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1506" s="5"/>
+      <c r="A1506" s="5">
+        <v>1505</v>
+      </c>
       <c r="B1506" s="5" t="s">
         <v>4028</v>
       </c>
@@ -76919,7 +76948,9 @@
       </c>
     </row>
     <row r="1507" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1507" s="5"/>
+      <c r="A1507" s="5">
+        <v>1506</v>
+      </c>
       <c r="B1507" s="5" t="s">
         <v>4032</v>
       </c>
@@ -76937,7 +76968,9 @@
       </c>
     </row>
     <row r="1508" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1508" s="5"/>
+      <c r="A1508" s="5">
+        <v>1507</v>
+      </c>
       <c r="B1508" s="5" t="s">
         <v>4035</v>
       </c>
@@ -76955,7 +76988,9 @@
       </c>
     </row>
     <row r="1509" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1509" s="5"/>
+      <c r="A1509" s="5">
+        <v>1508</v>
+      </c>
       <c r="B1509" s="5" t="s">
         <v>4038</v>
       </c>
@@ -76973,7 +77008,9 @@
       </c>
     </row>
     <row r="1510" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1510" s="5"/>
+      <c r="A1510" s="5">
+        <v>1509</v>
+      </c>
       <c r="B1510" s="5" t="s">
         <v>4042</v>
       </c>
@@ -76991,7 +77028,9 @@
       </c>
     </row>
     <row r="1511" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1511" s="5"/>
+      <c r="A1511" s="5">
+        <v>1510</v>
+      </c>
       <c r="B1511" s="5" t="s">
         <v>4046</v>
       </c>
@@ -77009,7 +77048,9 @@
       </c>
     </row>
     <row r="1512" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1512" s="5"/>
+      <c r="A1512" s="5">
+        <v>1511</v>
+      </c>
       <c r="B1512" s="5" t="s">
         <v>4050</v>
       </c>
@@ -77027,7 +77068,9 @@
       </c>
     </row>
     <row r="1513" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1513" s="5"/>
+      <c r="A1513" s="5">
+        <v>1512</v>
+      </c>
       <c r="B1513" s="5" t="s">
         <v>4054</v>
       </c>
@@ -77045,7 +77088,9 @@
       </c>
     </row>
     <row r="1514" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1514" s="5"/>
+      <c r="A1514" s="5">
+        <v>1513</v>
+      </c>
       <c r="B1514" s="5" t="s">
         <v>4057</v>
       </c>
@@ -77063,7 +77108,9 @@
       </c>
     </row>
     <row r="1515" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1515" s="5"/>
+      <c r="A1515" s="5">
+        <v>1514</v>
+      </c>
       <c r="B1515" s="5" t="s">
         <v>4060</v>
       </c>
@@ -77081,7 +77128,9 @@
       </c>
     </row>
     <row r="1516" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1516" s="5"/>
+      <c r="A1516" s="5">
+        <v>1515</v>
+      </c>
       <c r="B1516" s="5" t="s">
         <v>4064</v>
       </c>
@@ -77099,7 +77148,9 @@
       </c>
     </row>
     <row r="1517" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1517" s="5"/>
+      <c r="A1517" s="5">
+        <v>1516</v>
+      </c>
       <c r="B1517" s="5" t="s">
         <v>4068</v>
       </c>
@@ -77117,7 +77168,9 @@
       </c>
     </row>
     <row r="1518" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1518" s="5"/>
+      <c r="A1518" s="5">
+        <v>1517</v>
+      </c>
       <c r="B1518" s="5" t="s">
         <v>4071</v>
       </c>
@@ -77135,7 +77188,9 @@
       </c>
     </row>
     <row r="1519" spans="1:6" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1519" s="5"/>
+      <c r="A1519" s="5">
+        <v>1518</v>
+      </c>
       <c r="B1519" s="5" t="s">
         <v>4075</v>
       </c>
@@ -77153,7 +77208,9 @@
       </c>
     </row>
     <row r="1520" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1520" s="5"/>
+      <c r="A1520" s="5">
+        <v>1519</v>
+      </c>
       <c r="B1520" s="5" t="s">
         <v>4079</v>
       </c>
